--- a/medicine/Enfance/Les_Mangeurs_d'atomes/Les_Mangeurs_d'atomes.xlsx
+++ b/medicine/Enfance/Les_Mangeurs_d'atomes/Les_Mangeurs_d'atomes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Mangeurs_d%27atomes</t>
+          <t>Les_Mangeurs_d'atomes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Mangeurs d'atomes est un roman de science-fiction de la série Bob Morane, écrit par Henri Vernes et publié en 1961.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Mangeurs_d%27atomes</t>
+          <t>Les_Mangeurs_d'atomes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman est paru pour la première fois, avec une illustration de couverture de Pierre Joubert, aux éditions Marabout, collection Marabout Junior / Bob Morane no 190 en 1961. 
 Le roman a été réédité en 1963, 1966, 1970 et 1979.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Mangeurs_d%27atomes</t>
+          <t>Les_Mangeurs_d'atomes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bob Morane est chargé par le ministère des Affaires étrangères français de découvrir le secret du retraitement des déchets nucléaires détenu par l'infâme Confédération Balkanique, sorte d'avatar de l'Union soviétique. Prenant l'apparence du chercheur François de Hauteclare, Bob Morane se rend dans le pays vivant sous la dictature, au Centre de Biologie marine de Varna. 
 Il y rencontre un scientifique de l'Est, le Dr Von Hass. Inspectant un bassin top-secret, il découvre que le savant a créé des trilobites qui se nourrissent de déchets nucléaires. Mais son identité a été percée à jour par son vieil ennemi, Roman Orgonetz, alias « l'Homme aux Dents d'Or ».
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Mangeurs_d%27atomes</t>
+          <t>Les_Mangeurs_d'atomes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,14 +596,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Personnages principaux
-Bob Morane
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bob Morane
 Roman Orgonetz : un des plus anciens ennemis de Bob Morane. Il s'agit de leur sixième rencontre.
 Colonel Jouvert : un des chefs du Deuxième Bureau français. C'est lui qui engage Morane comme espion dans cette aventure.
 Major Clark : major des Services secrets américains.
-François de Hauteclare : savant spécialiste des effets des radiations sur les organismes marins. Ressemble beaucoup physiquement à Bob Morane. A déjà eu des sympathies pour la Confédération balkanique. Bob Morane se fait passer pour lui lorsqu'il est chargé de rapporter des renseignements sur le secret des Balkaniques concernant leurs déchets atomiques.
-Personnages secondaires
-Bastien : employé du 2e Bureau. « Transforme » Bob Morane en François de Hauteclare.
+François de Hauteclare : savant spécialiste des effets des radiations sur les organismes marins. Ressemble beaucoup physiquement à Bob Morane. A déjà eu des sympathies pour la Confédération balkanique. Bob Morane se fait passer pour lui lorsqu'il est chargé de rapporter des renseignements sur le secret des Balkaniques concernant leurs déchets atomiques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Mangeurs_d'atomes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mangeurs_d%27atomes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Personnages secondaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bastien : employé du 2e Bureau. « Transforme » Bob Morane en François de Hauteclare.
 Michael Norgha : agent de la Confédération balkanique.
 Boris Aïlovitch : agent de la Confédération balkanique.
 Natan Zvordo : agent de la Confédération balkanique.
